--- a/Study_design.xlsx
+++ b/Study_design.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEDE756-D43A-8C49-9179-094DAE67EDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F123C-FB01-834D-880B-11887237E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2320" windowWidth="26840" windowHeight="15940" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="28040" windowHeight="18300" activeTab="5" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall Framework" sheetId="2" r:id="rId1"/>
+    <sheet name="Part_1" sheetId="4" r:id="rId1"/>
+    <sheet name="Part_2" sheetId="5" r:id="rId2"/>
+    <sheet name="Part_3" sheetId="6" r:id="rId3"/>
+    <sheet name="Original Framework" sheetId="2" r:id="rId4"/>
+    <sheet name="Modified Framework" sheetId="7" r:id="rId5"/>
+    <sheet name="Modified Part 1" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="100">
   <si>
     <t>Observed, dependent variable</t>
   </si>
@@ -297,13 +302,52 @@
   </si>
   <si>
     <t>Natural work tasks and organizational</t>
+  </si>
+  <si>
+    <t>Document metadata</t>
+  </si>
+  <si>
+    <t>Use of NLP for document vectorization</t>
+  </si>
+  <si>
+    <t>Use of NLP for request vectorization</t>
+  </si>
+  <si>
+    <t>Use of weights in document vectorization</t>
+  </si>
+  <si>
+    <t>Use of weights in query vectorization</t>
+  </si>
+  <si>
+    <t>User retrieval strategy</t>
+  </si>
+  <si>
+    <t>Degree of document structure and context used (chunking)</t>
+  </si>
+  <si>
+    <t>Response representation</t>
+  </si>
+  <si>
+    <t>Algorithmic Component</t>
+  </si>
+  <si>
+    <t>Access and Interaction Component</t>
+  </si>
+  <si>
+    <t>Document Component</t>
+  </si>
+  <si>
+    <t>Actor Component</t>
+  </si>
+  <si>
+    <t>Organizational Task Component</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,8 +363,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +449,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD15C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5FC2EF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFFC61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC160FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD793FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -381,11 +533,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -408,7 +569,94 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -417,6 +665,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC160FF"/>
+      <color rgb="FFD793FE"/>
+      <color rgb="FFAFFC61"/>
+      <color rgb="FF5FC2EF"/>
+      <color rgb="FF7FBC3F"/>
+      <color rgb="FFFFFD83"/>
+      <color rgb="FFE3DF00"/>
+      <color rgb="FFFFB700"/>
+      <color rgb="FFFCD15C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -744,14 +1005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DB74B5-D29A-7544-BB35-FC95DF29382F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56F9E07-84B1-EF4C-81CA-3699887E0893}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,25 +1057,25 @@
       <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -825,25 +1086,997 @@
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A1A176-2289-8D46-9D75-BF446874E472}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="17.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5100454A-4735-4D4A-B527-3284A830BD3E}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="17.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DB74B5-D29A-7544-BB35-FC95DF29382F}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="17.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -854,25 +2087,25 @@
       <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -883,25 +2116,25 @@
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -912,25 +2145,25 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -941,65 +2174,62 @@
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1065,4 +2295,800 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04025A72-6FFE-3147-BA12-F8A8FB35BCC1}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2E817B-6D21-2A47-9946-26B953D61335}">
+  <sheetPr>
+    <tabColor rgb="FFC160FF"/>
+  </sheetPr>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Study_design.xlsx
+++ b/Study_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F123C-FB01-834D-880B-11887237E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FD0DF-FF99-C04B-9DE1-C97FA1B19139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="28040" windowHeight="18300" activeTab="5" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
+    <workbookView xWindow="33080" yWindow="1120" windowWidth="26840" windowHeight="15940" activeTab="7" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Part_1" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Original Framework" sheetId="2" r:id="rId4"/>
     <sheet name="Modified Framework" sheetId="7" r:id="rId5"/>
     <sheet name="Modified Part 1" sheetId="8" r:id="rId6"/>
+    <sheet name="Modified Part 2" sheetId="9" r:id="rId7"/>
+    <sheet name="Modified Part 3" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="106">
   <si>
     <t>Observed, dependent variable</t>
   </si>
@@ -341,13 +343,31 @@
   </si>
   <si>
     <t>Organizational Task Component</t>
+  </si>
+  <si>
+    <t>Controlled variables</t>
+  </si>
+  <si>
+    <t>Observed variables</t>
+  </si>
+  <si>
+    <t>Task dependencies</t>
+  </si>
+  <si>
+    <t>Dependent variables</t>
+  </si>
+  <si>
+    <t>Observed variable</t>
+  </si>
+  <si>
+    <t>Controlled variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -409,6 +429,68 @@
       <sz val="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -657,6 +739,111 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,10 +854,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF5FC2EF"/>
+      <color rgb="FFAFFC61"/>
       <color rgb="FFC160FF"/>
       <color rgb="FFD793FE"/>
-      <color rgb="FFAFFC61"/>
-      <color rgb="FF5FC2EF"/>
       <color rgb="FF7FBC3F"/>
       <color rgb="FFFFFD83"/>
       <color rgb="FFE3DF00"/>
@@ -1336,7 +1523,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F2" sqref="F2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,10 +1844,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1856,7 @@
     <col min="10" max="16384" width="30.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
@@ -1697,8 +1884,17 @@
       <c r="I1" s="6" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K1" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -1726,8 +1922,17 @@
       <c r="I2" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1755,8 +1960,17 @@
       <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="K3" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1784,8 +1998,17 @@
       <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K4" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +2027,7 @@
       <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1813,8 +2036,15 @@
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1842,8 +2072,15 @@
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="65"/>
+      <c r="L6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +2096,7 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1871,8 +2108,15 @@
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="K7" s="65"/>
+      <c r="L7" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1891,8 +2135,15 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="65"/>
+      <c r="L8" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +2159,13 @@
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1920,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1942,18 +2198,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="H13" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -2700,10 +2956,10 @@
   <sheetPr>
     <tabColor rgb="FFC160FF"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2716,10 +2972,15 @@
     <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="30.33203125" style="1"/>
+    <col min="10" max="11" width="30.33203125" style="1"/>
+    <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="1"/>
+    <col min="15" max="20" width="30.33203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="30.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>99</v>
       </c>
@@ -2739,8 +3000,12 @@
       <c r="I1" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="L1" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
@@ -2768,8 +3033,14 @@
       <c r="I2" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="L2" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>77</v>
       </c>
@@ -2797,8 +3068,14 @@
       <c r="I3" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.2">
+      <c r="L3" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="42" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>68</v>
       </c>
@@ -2826,8 +3103,14 @@
       <c r="I4" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="L4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>59</v>
       </c>
@@ -2855,8 +3138,12 @@
       <c r="I5" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="L5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>50</v>
       </c>
@@ -2884,8 +3171,12 @@
       <c r="I6" s="24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>41</v>
       </c>
@@ -2913,8 +3204,12 @@
       <c r="I7" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>32</v>
       </c>
@@ -2942,8 +3237,12 @@
       <c r="I8" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="L8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
@@ -2965,8 +3264,12 @@
       <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
@@ -2987,7 +3290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3003,8 +3306,9 @@
         <v>10</v>
       </c>
       <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -3020,14 +3324,15 @@
         <v>7</v>
       </c>
       <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="36" t="s">
@@ -3038,7 +3343,7 @@
       </c>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -3051,7 +3356,7 @@
       </c>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -3064,7 +3369,7 @@
       </c>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
@@ -3084,10 +3389,939 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0625B76C-125C-E343-B395-11303D2CE53D}">
+  <sheetPr>
+    <tabColor rgb="FFAFFC61"/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11" style="24" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="24" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="24"/>
+    <col min="11" max="11" width="16.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11" style="24" customWidth="1"/>
+    <col min="15" max="16384" width="30.33203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="70" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="54"/>
+    </row>
+    <row r="10" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" x14ac:dyDescent="0.2">
+      <c r="H15" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CDDACD-9699-5C49-BBDA-0D468331231C}">
+  <sheetPr>
+    <tabColor rgb="FF5FC2EF"/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="1"/>
+    <col min="11" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="30.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="71"/>
+    </row>
+    <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="56" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="56" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="65"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+    </row>
+    <row r="11" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Study_design.xlsx
+++ b/Study_design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1FD0DF-FF99-C04B-9DE1-C97FA1B19139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60796C0D-3912-9A4D-845B-FCD65383A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33080" yWindow="1120" windowWidth="26840" windowHeight="15940" activeTab="7" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
+    <workbookView xWindow="31920" yWindow="1000" windowWidth="26840" windowHeight="18360" activeTab="5" xr2:uid="{1400FE88-7D41-994E-8613-3731FE2A04E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Part_1" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="117">
   <si>
     <t>Observed, dependent variable</t>
   </si>
@@ -361,6 +361,44 @@
   </si>
   <si>
     <t>Controlled variable</t>
+  </si>
+  <si>
+    <t>Measure or controlled element</t>
+  </si>
+  <si>
+    <t>Dictionary form of document</t>
+  </si>
+  <si>
+    <t>Academic article abstracts</t>
+  </si>
+  <si>
+    <t>Academic, discipline specific focused on IS and NLP</t>
+  </si>
+  <si>
+    <t>Communication of science problems, methods, results</t>
+  </si>
+  <si>
+    <t>Time limited based on sample</t>
+  </si>
+  <si>
+    <t>Order defined by dictionary form of document</t>
+  </si>
+  <si>
+    <t>Dictionary keys</t>
+  </si>
+  <si>
+    <t>Measure source:measure</t>
+  </si>
+  <si>
+    <t>REST API
+XML API
+Abstract element</t>
+  </si>
+  <si>
+    <t>REST API:{language}
+XML API:{journal:language}
+Abstract attribute:{title/abstract: attr:lang=}
+Title/Abstract:Human assessment of abstract</t>
   </si>
 </sst>
 </file>
@@ -628,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,19 +692,148 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,176 +842,17 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,7 +1322,7 @@
       <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1343,7 +1351,7 @@
       <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1401,7 +1409,7 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1435,13 +1443,13 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1474,7 +1482,7 @@
       <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1638,7 +1646,7 @@
       <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1664,10 +1672,10 @@
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1725,7 +1733,7 @@
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1759,13 +1767,13 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1798,7 +1806,7 @@
       <c r="F12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1884,13 +1892,13 @@
       <c r="I1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="50" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1922,13 +1930,13 @@
       <c r="I2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="51" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1960,13 +1968,13 @@
       <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="51" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1989,7 +1997,7 @@
       <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1998,13 +2006,13 @@
       <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="52" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2027,7 +2035,7 @@
       <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2036,11 +2044,11 @@
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="51" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2072,11 +2080,11 @@
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="51" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2099,7 +2107,7 @@
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2108,11 +2116,11 @@
       <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="65" t="s">
+      <c r="M7" s="51" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2135,11 +2143,11 @@
       <c r="I8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="51" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2147,21 +2155,21 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66" t="s">
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2191,7 +2199,7 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2578,349 +2586,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -2956,10 +2964,10 @@
   <sheetPr>
     <tabColor rgb="FFC160FF"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2975,401 +2983,477 @@
     <col min="10" max="11" width="30.33203125" style="1"/>
     <col min="12" max="12" width="20.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="1"/>
-    <col min="15" max="20" width="30.33203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="30.33203125" style="1"/>
+    <col min="14" max="15" width="30.33203125" style="1"/>
+    <col min="16" max="21" width="30.33203125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="30.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:17" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="K1" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="L1" s="60"/>
+      <c r="N1" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="2" spans="1:17" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="K2" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="N2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="K3" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="L3" s="31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="N3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="L4" s="31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="N4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="L5" s="32"/>
+      <c r="N5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="K6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="L6" s="32"/>
+      <c r="N6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="41"/>
-    </row>
-    <row r="8" spans="1:13" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="L7" s="32"/>
+      <c r="N7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="41"/>
-    </row>
-    <row r="9" spans="1:13" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="L8" s="32"/>
+      <c r="N8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="K9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24" t="s">
+      <c r="L9" s="35"/>
+      <c r="N9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="35"/>
+    </row>
+    <row r="10" spans="1:17" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="37" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="32" t="s">
+    <row r="11" spans="1:17" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:13" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="31" t="s">
+      <c r="I11" s="19"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="33" t="s">
+      <c r="I12" s="19"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
@@ -3389,11 +3473,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3406,414 +3491,407 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.33203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11" style="24" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="24" customWidth="1"/>
-    <col min="8" max="9" width="11.1640625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="24"/>
-    <col min="11" max="11" width="16.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11" style="24" customWidth="1"/>
-    <col min="15" max="16384" width="30.33203125" style="24"/>
+    <col min="1" max="1" width="10.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="19" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="19"/>
+    <col min="11" max="11" width="16.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15" style="19" customWidth="1"/>
+    <col min="14" max="14" width="11" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="30.33203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="45"/>
     </row>
     <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="62" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="54"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28" x14ac:dyDescent="0.2">
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" x14ac:dyDescent="0.2">
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="37" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3835,7 +3913,7 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -3859,442 +3937,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="44" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="H1" s="59"/>
+      <c r="I1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="71"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="40" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="71" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="65"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="70" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="70" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70" t="s">
+      <c r="M7" s="51"/>
+      <c r="N7" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="56" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="70" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70" t="s">
+      <c r="M8" s="51"/>
+      <c r="N8" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70" t="s">
+      <c r="K9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="28" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="45" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:2" ht="35" thickBot="1" x14ac:dyDescent="0.25">
